--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_213.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_213.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32279-d76720-Reviews-DoubleTree_Suites_by_Hilton_Doheny_Beach_Dana_Point-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>564</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-DoubleTree-Suites-By-Hilton-Doheny-Beach-Dana-Point.h1419.Hotel-Information?chkin=6%2F21%2F2018&amp;chkout=6%2F22%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528304053268&amp;cancellable=false&amp;regionId=6752&amp;vip=false&amp;c=81c96086-5d68-4280-8dad-6463da76366d&amp;mctc=9&amp;exp_dp=268.44&amp;exp_ts=1528304054469&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_213.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_213.xlsx
@@ -8109,7 +8109,7 @@
         <v>24619</v>
       </c>
       <c r="B2" t="n">
-        <v>139140</v>
+        <v>170249</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -8178,7 +8178,7 @@
         <v>24619</v>
       </c>
       <c r="B3" t="n">
-        <v>139141</v>
+        <v>170250</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -8253,7 +8253,7 @@
         <v>24619</v>
       </c>
       <c r="B4" t="n">
-        <v>139142</v>
+        <v>170251</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -8322,7 +8322,7 @@
         <v>24619</v>
       </c>
       <c r="B5" t="n">
-        <v>139143</v>
+        <v>170252</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -8389,7 +8389,7 @@
         <v>24619</v>
       </c>
       <c r="B6" t="n">
-        <v>139144</v>
+        <v>170253</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
@@ -8519,7 +8519,7 @@
         <v>24619</v>
       </c>
       <c r="B8" t="n">
-        <v>139145</v>
+        <v>170254</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
@@ -8594,7 +8594,7 @@
         <v>24619</v>
       </c>
       <c r="B9" t="n">
-        <v>139146</v>
+        <v>170255</v>
       </c>
       <c r="C9" t="s">
         <v>109</v>
@@ -8669,7 +8669,7 @@
         <v>24619</v>
       </c>
       <c r="B10" t="n">
-        <v>139147</v>
+        <v>170256</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
@@ -8734,7 +8734,7 @@
         <v>24619</v>
       </c>
       <c r="B11" t="n">
-        <v>139148</v>
+        <v>170257</v>
       </c>
       <c r="C11" t="s">
         <v>125</v>
@@ -8809,7 +8809,7 @@
         <v>24619</v>
       </c>
       <c r="B12" t="n">
-        <v>139149</v>
+        <v>170258</v>
       </c>
       <c r="C12" t="s">
         <v>134</v>
@@ -8884,7 +8884,7 @@
         <v>24619</v>
       </c>
       <c r="B13" t="n">
-        <v>139150</v>
+        <v>170259</v>
       </c>
       <c r="C13" t="s">
         <v>140</v>
@@ -8949,7 +8949,7 @@
         <v>24619</v>
       </c>
       <c r="B14" t="n">
-        <v>139151</v>
+        <v>170260</v>
       </c>
       <c r="C14" t="s">
         <v>149</v>
@@ -9024,7 +9024,7 @@
         <v>24619</v>
       </c>
       <c r="B15" t="n">
-        <v>139152</v>
+        <v>170261</v>
       </c>
       <c r="C15" t="s">
         <v>158</v>
@@ -9093,7 +9093,7 @@
         <v>24619</v>
       </c>
       <c r="B16" t="n">
-        <v>139153</v>
+        <v>170262</v>
       </c>
       <c r="C16" t="s">
         <v>169</v>
@@ -9223,7 +9223,7 @@
         <v>24619</v>
       </c>
       <c r="B18" t="n">
-        <v>139154</v>
+        <v>170263</v>
       </c>
       <c r="C18" t="s">
         <v>185</v>
@@ -9298,7 +9298,7 @@
         <v>24619</v>
       </c>
       <c r="B19" t="n">
-        <v>139155</v>
+        <v>170264</v>
       </c>
       <c r="C19" t="s">
         <v>194</v>
@@ -9373,7 +9373,7 @@
         <v>24619</v>
       </c>
       <c r="B20" t="n">
-        <v>139156</v>
+        <v>170265</v>
       </c>
       <c r="C20" t="s">
         <v>203</v>
@@ -9448,7 +9448,7 @@
         <v>24619</v>
       </c>
       <c r="B21" t="n">
-        <v>139157</v>
+        <v>170266</v>
       </c>
       <c r="C21" t="s">
         <v>212</v>
@@ -9519,7 +9519,7 @@
         <v>24619</v>
       </c>
       <c r="B22" t="n">
-        <v>139158</v>
+        <v>170267</v>
       </c>
       <c r="C22" t="s">
         <v>221</v>
@@ -9594,7 +9594,7 @@
         <v>24619</v>
       </c>
       <c r="B23" t="n">
-        <v>139159</v>
+        <v>170268</v>
       </c>
       <c r="C23" t="s">
         <v>230</v>
@@ -9659,7 +9659,7 @@
         <v>24619</v>
       </c>
       <c r="B24" t="n">
-        <v>139160</v>
+        <v>170269</v>
       </c>
       <c r="C24" t="s">
         <v>239</v>
@@ -9734,7 +9734,7 @@
         <v>24619</v>
       </c>
       <c r="B25" t="n">
-        <v>139161</v>
+        <v>170270</v>
       </c>
       <c r="C25" t="s">
         <v>248</v>
@@ -9868,7 +9868,7 @@
         <v>24619</v>
       </c>
       <c r="B27" t="n">
-        <v>139162</v>
+        <v>170271</v>
       </c>
       <c r="C27" t="s">
         <v>267</v>
@@ -9943,7 +9943,7 @@
         <v>24619</v>
       </c>
       <c r="B28" t="n">
-        <v>139163</v>
+        <v>170272</v>
       </c>
       <c r="C28" t="s">
         <v>276</v>
@@ -10008,7 +10008,7 @@
         <v>24619</v>
       </c>
       <c r="B29" t="n">
-        <v>139164</v>
+        <v>170273</v>
       </c>
       <c r="C29" t="s">
         <v>285</v>
@@ -10073,7 +10073,7 @@
         <v>24619</v>
       </c>
       <c r="B30" t="n">
-        <v>139165</v>
+        <v>170274</v>
       </c>
       <c r="C30" t="s">
         <v>294</v>
@@ -10205,7 +10205,7 @@
         <v>24619</v>
       </c>
       <c r="B32" t="n">
-        <v>139166</v>
+        <v>139175</v>
       </c>
       <c r="C32" t="s">
         <v>312</v>
@@ -10355,7 +10355,7 @@
         <v>24619</v>
       </c>
       <c r="B34" t="n">
-        <v>139167</v>
+        <v>170275</v>
       </c>
       <c r="C34" t="s">
         <v>330</v>
@@ -10420,7 +10420,7 @@
         <v>24619</v>
       </c>
       <c r="B35" t="n">
-        <v>139168</v>
+        <v>170276</v>
       </c>
       <c r="C35" t="s">
         <v>337</v>
@@ -10489,7 +10489,7 @@
         <v>24619</v>
       </c>
       <c r="B36" t="n">
-        <v>139169</v>
+        <v>170277</v>
       </c>
       <c r="C36" t="s">
         <v>347</v>
@@ -10629,7 +10629,7 @@
         <v>24619</v>
       </c>
       <c r="B38" t="n">
-        <v>139170</v>
+        <v>170278</v>
       </c>
       <c r="C38" t="s">
         <v>365</v>
@@ -10765,7 +10765,7 @@
         <v>24619</v>
       </c>
       <c r="B40" t="n">
-        <v>139171</v>
+        <v>170279</v>
       </c>
       <c r="C40" t="s">
         <v>381</v>
@@ -10984,7 +10984,7 @@
         <v>24619</v>
       </c>
       <c r="B43" t="n">
-        <v>139172</v>
+        <v>170280</v>
       </c>
       <c r="C43" t="s">
         <v>407</v>
@@ -11055,7 +11055,7 @@
         <v>24619</v>
       </c>
       <c r="B44" t="n">
-        <v>139173</v>
+        <v>170281</v>
       </c>
       <c r="C44" t="s">
         <v>416</v>
@@ -11195,7 +11195,7 @@
         <v>24619</v>
       </c>
       <c r="B46" t="n">
-        <v>139174</v>
+        <v>170282</v>
       </c>
       <c r="C46" t="s">
         <v>432</v>
@@ -11270,7 +11270,7 @@
         <v>24619</v>
       </c>
       <c r="B47" t="n">
-        <v>139175</v>
+        <v>170283</v>
       </c>
       <c r="C47" t="s">
         <v>441</v>
@@ -11345,7 +11345,7 @@
         <v>24619</v>
       </c>
       <c r="B48" t="n">
-        <v>139176</v>
+        <v>170284</v>
       </c>
       <c r="C48" t="s">
         <v>450</v>
@@ -11420,7 +11420,7 @@
         <v>24619</v>
       </c>
       <c r="B49" t="n">
-        <v>139177</v>
+        <v>170285</v>
       </c>
       <c r="C49" t="s">
         <v>456</v>
@@ -11495,7 +11495,7 @@
         <v>24619</v>
       </c>
       <c r="B50" t="n">
-        <v>139178</v>
+        <v>170286</v>
       </c>
       <c r="C50" t="s">
         <v>463</v>
@@ -11633,7 +11633,7 @@
         <v>24619</v>
       </c>
       <c r="B52" t="n">
-        <v>139179</v>
+        <v>170287</v>
       </c>
       <c r="C52" t="s">
         <v>476</v>
@@ -11704,7 +11704,7 @@
         <v>24619</v>
       </c>
       <c r="B53" t="n">
-        <v>139180</v>
+        <v>170288</v>
       </c>
       <c r="C53" t="s">
         <v>482</v>
@@ -11775,7 +11775,7 @@
         <v>24619</v>
       </c>
       <c r="B54" t="n">
-        <v>139181</v>
+        <v>170289</v>
       </c>
       <c r="C54" t="s">
         <v>488</v>
@@ -11846,7 +11846,7 @@
         <v>24619</v>
       </c>
       <c r="B55" t="n">
-        <v>139182</v>
+        <v>170290</v>
       </c>
       <c r="C55" t="s">
         <v>494</v>
@@ -11917,7 +11917,7 @@
         <v>24619</v>
       </c>
       <c r="B56" t="n">
-        <v>139183</v>
+        <v>170291</v>
       </c>
       <c r="C56" t="s">
         <v>500</v>
@@ -12043,7 +12043,7 @@
         <v>24619</v>
       </c>
       <c r="B58" t="n">
-        <v>139184</v>
+        <v>170292</v>
       </c>
       <c r="C58" t="s">
         <v>513</v>
@@ -12161,7 +12161,7 @@
         <v>24619</v>
       </c>
       <c r="B60" t="n">
-        <v>139185</v>
+        <v>170293</v>
       </c>
       <c r="C60" t="s">
         <v>526</v>
@@ -12232,7 +12232,7 @@
         <v>24619</v>
       </c>
       <c r="B61" t="n">
-        <v>139186</v>
+        <v>139198</v>
       </c>
       <c r="C61" t="s">
         <v>532</v>
@@ -12303,7 +12303,7 @@
         <v>24619</v>
       </c>
       <c r="B62" t="n">
-        <v>139187</v>
+        <v>170294</v>
       </c>
       <c r="C62" t="s">
         <v>537</v>
@@ -12374,7 +12374,7 @@
         <v>24619</v>
       </c>
       <c r="B63" t="n">
-        <v>139188</v>
+        <v>170295</v>
       </c>
       <c r="C63" t="s">
         <v>544</v>
@@ -12573,7 +12573,7 @@
         <v>24619</v>
       </c>
       <c r="B66" t="n">
-        <v>139189</v>
+        <v>170296</v>
       </c>
       <c r="C66" t="s">
         <v>564</v>
@@ -12640,7 +12640,7 @@
         <v>24619</v>
       </c>
       <c r="B67" t="n">
-        <v>139190</v>
+        <v>170297</v>
       </c>
       <c r="C67" t="s">
         <v>571</v>
@@ -12711,7 +12711,7 @@
         <v>24619</v>
       </c>
       <c r="B68" t="n">
-        <v>139191</v>
+        <v>170298</v>
       </c>
       <c r="C68" t="s">
         <v>577</v>
@@ -12782,7 +12782,7 @@
         <v>24619</v>
       </c>
       <c r="B69" t="n">
-        <v>139192</v>
+        <v>170299</v>
       </c>
       <c r="C69" t="s">
         <v>583</v>
@@ -12924,7 +12924,7 @@
         <v>24619</v>
       </c>
       <c r="B71" t="n">
-        <v>139193</v>
+        <v>170300</v>
       </c>
       <c r="C71" t="s">
         <v>594</v>
@@ -12985,7 +12985,7 @@
         <v>24619</v>
       </c>
       <c r="B72" t="n">
-        <v>139194</v>
+        <v>170301</v>
       </c>
       <c r="C72" t="s">
         <v>601</v>
@@ -13194,7 +13194,7 @@
         <v>24619</v>
       </c>
       <c r="B75" t="n">
-        <v>139195</v>
+        <v>170302</v>
       </c>
       <c r="C75" t="s">
         <v>620</v>
@@ -13259,7 +13259,7 @@
         <v>24619</v>
       </c>
       <c r="B76" t="n">
-        <v>139196</v>
+        <v>170303</v>
       </c>
       <c r="C76" t="s">
         <v>630</v>
@@ -13330,7 +13330,7 @@
         <v>24619</v>
       </c>
       <c r="B77" t="n">
-        <v>139197</v>
+        <v>170304</v>
       </c>
       <c r="C77" t="s">
         <v>636</v>
@@ -13401,7 +13401,7 @@
         <v>24619</v>
       </c>
       <c r="B78" t="n">
-        <v>139198</v>
+        <v>170305</v>
       </c>
       <c r="C78" t="s">
         <v>642</v>
@@ -13472,7 +13472,7 @@
         <v>24619</v>
       </c>
       <c r="B79" t="n">
-        <v>139199</v>
+        <v>170306</v>
       </c>
       <c r="C79" t="s">
         <v>647</v>
@@ -13543,7 +13543,7 @@
         <v>24619</v>
       </c>
       <c r="B80" t="n">
-        <v>139200</v>
+        <v>170307</v>
       </c>
       <c r="C80" t="s">
         <v>652</v>
@@ -13610,7 +13610,7 @@
         <v>24619</v>
       </c>
       <c r="B81" t="n">
-        <v>139201</v>
+        <v>170308</v>
       </c>
       <c r="C81" t="s">
         <v>658</v>
@@ -13675,7 +13675,7 @@
         <v>24619</v>
       </c>
       <c r="B82" t="n">
-        <v>139202</v>
+        <v>170309</v>
       </c>
       <c r="C82" t="s">
         <v>665</v>
@@ -13750,7 +13750,7 @@
         <v>24619</v>
       </c>
       <c r="B83" t="n">
-        <v>139203</v>
+        <v>170310</v>
       </c>
       <c r="C83" t="s">
         <v>673</v>
@@ -13825,7 +13825,7 @@
         <v>24619</v>
       </c>
       <c r="B84" t="n">
-        <v>139204</v>
+        <v>170311</v>
       </c>
       <c r="C84" t="s">
         <v>682</v>
@@ -14038,7 +14038,7 @@
         <v>24619</v>
       </c>
       <c r="B87" t="n">
-        <v>139205</v>
+        <v>170312</v>
       </c>
       <c r="C87" t="s">
         <v>704</v>
@@ -14170,7 +14170,7 @@
         <v>24619</v>
       </c>
       <c r="B89" t="n">
-        <v>139206</v>
+        <v>170313</v>
       </c>
       <c r="C89" t="s">
         <v>716</v>
@@ -14241,7 +14241,7 @@
         <v>24619</v>
       </c>
       <c r="B90" t="n">
-        <v>139207</v>
+        <v>170314</v>
       </c>
       <c r="C90" t="s">
         <v>723</v>
@@ -14316,7 +14316,7 @@
         <v>24619</v>
       </c>
       <c r="B91" t="n">
-        <v>139208</v>
+        <v>170315</v>
       </c>
       <c r="C91" t="s">
         <v>729</v>
@@ -14452,7 +14452,7 @@
         <v>24619</v>
       </c>
       <c r="B93" t="n">
-        <v>139209</v>
+        <v>170316</v>
       </c>
       <c r="C93" t="s">
         <v>742</v>
@@ -14602,7 +14602,7 @@
         <v>24619</v>
       </c>
       <c r="B95" t="n">
-        <v>139210</v>
+        <v>170317</v>
       </c>
       <c r="C95" t="s">
         <v>754</v>
@@ -14667,7 +14667,7 @@
         <v>24619</v>
       </c>
       <c r="B96" t="n">
-        <v>139211</v>
+        <v>170318</v>
       </c>
       <c r="C96" t="s">
         <v>760</v>
@@ -14738,7 +14738,7 @@
         <v>24619</v>
       </c>
       <c r="B97" t="n">
-        <v>139212</v>
+        <v>170319</v>
       </c>
       <c r="C97" t="s">
         <v>766</v>
@@ -14813,7 +14813,7 @@
         <v>24619</v>
       </c>
       <c r="B98" t="n">
-        <v>139213</v>
+        <v>170320</v>
       </c>
       <c r="C98" t="s">
         <v>773</v>
@@ -14945,7 +14945,7 @@
         <v>24619</v>
       </c>
       <c r="B100" t="n">
-        <v>139214</v>
+        <v>170321</v>
       </c>
       <c r="C100" t="s">
         <v>786</v>
@@ -15081,7 +15081,7 @@
         <v>24619</v>
       </c>
       <c r="B102" t="n">
-        <v>139215</v>
+        <v>170322</v>
       </c>
       <c r="C102" t="s">
         <v>799</v>
@@ -15152,7 +15152,7 @@
         <v>24619</v>
       </c>
       <c r="B103" t="n">
-        <v>139216</v>
+        <v>170323</v>
       </c>
       <c r="C103" t="s">
         <v>804</v>
@@ -15223,7 +15223,7 @@
         <v>24619</v>
       </c>
       <c r="B104" t="n">
-        <v>139217</v>
+        <v>170324</v>
       </c>
       <c r="C104" t="s">
         <v>809</v>
@@ -15284,7 +15284,7 @@
         <v>24619</v>
       </c>
       <c r="B105" t="n">
-        <v>139218</v>
+        <v>170325</v>
       </c>
       <c r="C105" t="s">
         <v>815</v>
@@ -15416,7 +15416,7 @@
         <v>24619</v>
       </c>
       <c r="B107" t="n">
-        <v>139219</v>
+        <v>170326</v>
       </c>
       <c r="C107" t="s">
         <v>827</v>
@@ -15487,7 +15487,7 @@
         <v>24619</v>
       </c>
       <c r="B108" t="n">
-        <v>139220</v>
+        <v>170327</v>
       </c>
       <c r="C108" t="s">
         <v>833</v>
@@ -15832,7 +15832,7 @@
         <v>24619</v>
       </c>
       <c r="B113" t="n">
-        <v>139221</v>
+        <v>170328</v>
       </c>
       <c r="C113" t="s">
         <v>863</v>
@@ -15903,7 +15903,7 @@
         <v>24619</v>
       </c>
       <c r="B114" t="n">
-        <v>139222</v>
+        <v>170329</v>
       </c>
       <c r="C114" t="s">
         <v>869</v>
@@ -16232,7 +16232,7 @@
         <v>24619</v>
       </c>
       <c r="B119" t="n">
-        <v>139223</v>
+        <v>170330</v>
       </c>
       <c r="C119" t="s">
         <v>902</v>
@@ -16443,7 +16443,7 @@
         <v>24619</v>
       </c>
       <c r="B122" t="n">
-        <v>139224</v>
+        <v>170331</v>
       </c>
       <c r="C122" t="s">
         <v>927</v>
@@ -16514,7 +16514,7 @@
         <v>24619</v>
       </c>
       <c r="B123" t="n">
-        <v>139225</v>
+        <v>170332</v>
       </c>
       <c r="C123" t="s">
         <v>933</v>
@@ -16581,7 +16581,7 @@
         <v>24619</v>
       </c>
       <c r="B124" t="n">
-        <v>139165</v>
+        <v>139175</v>
       </c>
       <c r="C124" t="s">
         <v>312</v>
@@ -16652,7 +16652,7 @@
         <v>24619</v>
       </c>
       <c r="B125" t="n">
-        <v>139226</v>
+        <v>170333</v>
       </c>
       <c r="C125" t="s">
         <v>945</v>
@@ -16727,7 +16727,7 @@
         <v>24619</v>
       </c>
       <c r="B126" t="n">
-        <v>139227</v>
+        <v>170334</v>
       </c>
       <c r="C126" t="s">
         <v>952</v>
@@ -16853,7 +16853,7 @@
         <v>24619</v>
       </c>
       <c r="B128" t="n">
-        <v>139228</v>
+        <v>170335</v>
       </c>
       <c r="C128" t="s">
         <v>965</v>
@@ -16995,7 +16995,7 @@
         <v>24619</v>
       </c>
       <c r="B130" t="n">
-        <v>139229</v>
+        <v>170336</v>
       </c>
       <c r="C130" t="s">
         <v>977</v>
@@ -17070,7 +17070,7 @@
         <v>24619</v>
       </c>
       <c r="B131" t="n">
-        <v>139230</v>
+        <v>170337</v>
       </c>
       <c r="C131" t="s">
         <v>983</v>
@@ -17145,7 +17145,7 @@
         <v>24619</v>
       </c>
       <c r="B132" t="n">
-        <v>139231</v>
+        <v>170338</v>
       </c>
       <c r="C132" t="s">
         <v>990</v>
@@ -17216,7 +17216,7 @@
         <v>24619</v>
       </c>
       <c r="B133" t="n">
-        <v>139232</v>
+        <v>170339</v>
       </c>
       <c r="C133" t="s">
         <v>995</v>
@@ -17287,7 +17287,7 @@
         <v>24619</v>
       </c>
       <c r="B134" t="n">
-        <v>139233</v>
+        <v>170340</v>
       </c>
       <c r="C134" t="s">
         <v>1000</v>
@@ -17354,7 +17354,7 @@
         <v>24619</v>
       </c>
       <c r="B135" t="n">
-        <v>139234</v>
+        <v>170341</v>
       </c>
       <c r="C135" t="s">
         <v>1007</v>
@@ -17496,7 +17496,7 @@
         <v>24619</v>
       </c>
       <c r="B137" t="n">
-        <v>139235</v>
+        <v>170342</v>
       </c>
       <c r="C137" t="s">
         <v>1022</v>
@@ -17567,7 +17567,7 @@
         <v>24619</v>
       </c>
       <c r="B138" t="n">
-        <v>139236</v>
+        <v>170343</v>
       </c>
       <c r="C138" t="s">
         <v>1028</v>
@@ -17642,7 +17642,7 @@
         <v>24619</v>
       </c>
       <c r="B139" t="n">
-        <v>139237</v>
+        <v>170344</v>
       </c>
       <c r="C139" t="s">
         <v>1036</v>
@@ -17709,7 +17709,7 @@
         <v>24619</v>
       </c>
       <c r="B140" t="n">
-        <v>139238</v>
+        <v>170345</v>
       </c>
       <c r="C140" t="s">
         <v>1043</v>
@@ -17780,7 +17780,7 @@
         <v>24619</v>
       </c>
       <c r="B141" t="n">
-        <v>139239</v>
+        <v>170346</v>
       </c>
       <c r="C141" t="s">
         <v>1049</v>
@@ -17924,7 +17924,7 @@
         <v>24619</v>
       </c>
       <c r="B143" t="n">
-        <v>139240</v>
+        <v>170347</v>
       </c>
       <c r="C143" t="s">
         <v>1063</v>
@@ -18066,7 +18066,7 @@
         <v>24619</v>
       </c>
       <c r="B145" t="n">
-        <v>139241</v>
+        <v>170348</v>
       </c>
       <c r="C145" t="s">
         <v>1075</v>
@@ -18206,7 +18206,7 @@
         <v>24619</v>
       </c>
       <c r="B147" t="n">
-        <v>139242</v>
+        <v>170349</v>
       </c>
       <c r="C147" t="s">
         <v>1089</v>
@@ -18281,7 +18281,7 @@
         <v>24619</v>
       </c>
       <c r="B148" t="n">
-        <v>139243</v>
+        <v>170350</v>
       </c>
       <c r="C148" t="s">
         <v>1095</v>
@@ -18350,7 +18350,7 @@
         <v>24619</v>
       </c>
       <c r="B149" t="n">
-        <v>139244</v>
+        <v>170351</v>
       </c>
       <c r="C149" t="s">
         <v>1101</v>
@@ -18496,7 +18496,7 @@
         <v>24619</v>
       </c>
       <c r="B151" t="n">
-        <v>139245</v>
+        <v>170352</v>
       </c>
       <c r="C151" t="s">
         <v>1117</v>
@@ -18571,7 +18571,7 @@
         <v>24619</v>
       </c>
       <c r="B152" t="n">
-        <v>139246</v>
+        <v>170353</v>
       </c>
       <c r="C152" t="s">
         <v>1123</v>
@@ -18721,7 +18721,7 @@
         <v>24619</v>
       </c>
       <c r="B154" t="n">
-        <v>139247</v>
+        <v>170354</v>
       </c>
       <c r="C154" t="s">
         <v>1140</v>
@@ -18796,7 +18796,7 @@
         <v>24619</v>
       </c>
       <c r="B155" t="n">
-        <v>139248</v>
+        <v>170355</v>
       </c>
       <c r="C155" t="s">
         <v>1147</v>
@@ -18871,7 +18871,7 @@
         <v>24619</v>
       </c>
       <c r="B156" t="n">
-        <v>139249</v>
+        <v>170356</v>
       </c>
       <c r="C156" t="s">
         <v>1154</v>
@@ -18946,7 +18946,7 @@
         <v>24619</v>
       </c>
       <c r="B157" t="n">
-        <v>139250</v>
+        <v>170357</v>
       </c>
       <c r="C157" t="s">
         <v>1161</v>
@@ -19011,7 +19011,7 @@
         <v>24619</v>
       </c>
       <c r="B158" t="n">
-        <v>139251</v>
+        <v>170358</v>
       </c>
       <c r="C158" t="s">
         <v>1171</v>
@@ -19157,7 +19157,7 @@
         <v>24619</v>
       </c>
       <c r="B160" t="n">
-        <v>139252</v>
+        <v>170359</v>
       </c>
       <c r="C160" t="s">
         <v>1187</v>
@@ -19307,7 +19307,7 @@
         <v>24619</v>
       </c>
       <c r="B162" t="n">
-        <v>139253</v>
+        <v>170360</v>
       </c>
       <c r="C162" t="s">
         <v>1201</v>
@@ -19382,7 +19382,7 @@
         <v>24619</v>
       </c>
       <c r="B163" t="n">
-        <v>139254</v>
+        <v>170361</v>
       </c>
       <c r="C163" t="s">
         <v>1207</v>
@@ -19457,7 +19457,7 @@
         <v>24619</v>
       </c>
       <c r="B164" t="n">
-        <v>139255</v>
+        <v>170362</v>
       </c>
       <c r="C164" t="s">
         <v>1213</v>
@@ -19532,7 +19532,7 @@
         <v>24619</v>
       </c>
       <c r="B165" t="n">
-        <v>139256</v>
+        <v>170363</v>
       </c>
       <c r="C165" t="s">
         <v>1222</v>
@@ -19672,7 +19672,7 @@
         <v>24619</v>
       </c>
       <c r="B167" t="n">
-        <v>139257</v>
+        <v>170364</v>
       </c>
       <c r="C167" t="s">
         <v>1238</v>
@@ -19747,7 +19747,7 @@
         <v>24619</v>
       </c>
       <c r="B168" t="n">
-        <v>139258</v>
+        <v>170365</v>
       </c>
       <c r="C168" t="s">
         <v>1246</v>
@@ -19822,7 +19822,7 @@
         <v>24619</v>
       </c>
       <c r="B169" t="n">
-        <v>139259</v>
+        <v>170366</v>
       </c>
       <c r="C169" t="s">
         <v>1253</v>
@@ -19897,7 +19897,7 @@
         <v>24619</v>
       </c>
       <c r="B170" t="n">
-        <v>139260</v>
+        <v>170367</v>
       </c>
       <c r="C170" t="s">
         <v>1259</v>
@@ -19962,7 +19962,7 @@
         <v>24619</v>
       </c>
       <c r="B171" t="n">
-        <v>139261</v>
+        <v>170368</v>
       </c>
       <c r="C171" t="s">
         <v>1266</v>
@@ -20108,7 +20108,7 @@
         <v>24619</v>
       </c>
       <c r="B173" t="n">
-        <v>139262</v>
+        <v>170369</v>
       </c>
       <c r="C173" t="s">
         <v>1281</v>
@@ -20183,7 +20183,7 @@
         <v>24619</v>
       </c>
       <c r="B174" t="n">
-        <v>139263</v>
+        <v>170370</v>
       </c>
       <c r="C174" t="s">
         <v>1288</v>
@@ -20258,7 +20258,7 @@
         <v>24619</v>
       </c>
       <c r="B175" t="n">
-        <v>139264</v>
+        <v>170371</v>
       </c>
       <c r="C175" t="s">
         <v>1297</v>
@@ -20323,7 +20323,7 @@
         <v>24619</v>
       </c>
       <c r="B176" t="n">
-        <v>139265</v>
+        <v>170372</v>
       </c>
       <c r="C176" t="s">
         <v>1304</v>
@@ -20394,7 +20394,7 @@
         <v>24619</v>
       </c>
       <c r="B177" t="n">
-        <v>139266</v>
+        <v>170373</v>
       </c>
       <c r="C177" t="s">
         <v>1311</v>
@@ -20469,7 +20469,7 @@
         <v>24619</v>
       </c>
       <c r="B178" t="n">
-        <v>139267</v>
+        <v>170374</v>
       </c>
       <c r="C178" t="s">
         <v>1318</v>
@@ -20544,7 +20544,7 @@
         <v>24619</v>
       </c>
       <c r="B179" t="n">
-        <v>139268</v>
+        <v>170375</v>
       </c>
       <c r="C179" t="s">
         <v>1327</v>
@@ -20619,7 +20619,7 @@
         <v>24619</v>
       </c>
       <c r="B180" t="n">
-        <v>139269</v>
+        <v>170376</v>
       </c>
       <c r="C180" t="s">
         <v>1334</v>
@@ -20694,7 +20694,7 @@
         <v>24619</v>
       </c>
       <c r="B181" t="n">
-        <v>139270</v>
+        <v>170377</v>
       </c>
       <c r="C181" t="s">
         <v>1340</v>
@@ -20990,7 +20990,7 @@
         <v>24619</v>
       </c>
       <c r="B185" t="n">
-        <v>139271</v>
+        <v>170378</v>
       </c>
       <c r="C185" t="s">
         <v>1371</v>
@@ -21280,7 +21280,7 @@
         <v>24619</v>
       </c>
       <c r="B189" t="n">
-        <v>139272</v>
+        <v>170379</v>
       </c>
       <c r="C189" t="s">
         <v>1400</v>
@@ -21345,7 +21345,7 @@
         <v>24619</v>
       </c>
       <c r="B190" t="n">
-        <v>139273</v>
+        <v>170380</v>
       </c>
       <c r="C190" t="s">
         <v>1409</v>
@@ -21485,7 +21485,7 @@
         <v>24619</v>
       </c>
       <c r="B192" t="n">
-        <v>139274</v>
+        <v>170381</v>
       </c>
       <c r="C192" t="s">
         <v>1424</v>
@@ -21617,7 +21617,7 @@
         <v>24619</v>
       </c>
       <c r="B194" t="n">
-        <v>139275</v>
+        <v>139226</v>
       </c>
       <c r="C194" t="s">
         <v>1438</v>
@@ -21763,7 +21763,7 @@
         <v>24619</v>
       </c>
       <c r="B196" t="n">
-        <v>139276</v>
+        <v>170382</v>
       </c>
       <c r="C196" t="s">
         <v>1451</v>
@@ -21903,7 +21903,7 @@
         <v>24619</v>
       </c>
       <c r="B198" t="n">
-        <v>139277</v>
+        <v>170383</v>
       </c>
       <c r="C198" t="s">
         <v>1464</v>
@@ -21978,7 +21978,7 @@
         <v>24619</v>
       </c>
       <c r="B199" t="n">
-        <v>139278</v>
+        <v>170384</v>
       </c>
       <c r="C199" t="s">
         <v>1470</v>
@@ -22051,7 +22051,7 @@
         <v>24619</v>
       </c>
       <c r="B200" t="n">
-        <v>139185</v>
+        <v>139198</v>
       </c>
       <c r="C200" t="s">
         <v>532</v>
@@ -22126,7 +22126,7 @@
         <v>24619</v>
       </c>
       <c r="B201" t="n">
-        <v>139279</v>
+        <v>170385</v>
       </c>
       <c r="C201" t="s">
         <v>1485</v>
@@ -22197,7 +22197,7 @@
         <v>24619</v>
       </c>
       <c r="B202" t="n">
-        <v>139280</v>
+        <v>170386</v>
       </c>
       <c r="C202" t="s">
         <v>1492</v>
@@ -22335,7 +22335,7 @@
         <v>24619</v>
       </c>
       <c r="B204" t="n">
-        <v>139281</v>
+        <v>170387</v>
       </c>
       <c r="C204" t="s">
         <v>1508</v>
@@ -22400,7 +22400,7 @@
         <v>24619</v>
       </c>
       <c r="B205" t="n">
-        <v>139282</v>
+        <v>170388</v>
       </c>
       <c r="C205" t="s">
         <v>1515</v>
@@ -22471,7 +22471,7 @@
         <v>24619</v>
       </c>
       <c r="B206" t="n">
-        <v>139283</v>
+        <v>170389</v>
       </c>
       <c r="C206" t="s">
         <v>1521</v>
@@ -22546,7 +22546,7 @@
         <v>24619</v>
       </c>
       <c r="B207" t="n">
-        <v>139284</v>
+        <v>170390</v>
       </c>
       <c r="C207" t="s">
         <v>1530</v>
@@ -22611,7 +22611,7 @@
         <v>24619</v>
       </c>
       <c r="B208" t="n">
-        <v>139285</v>
+        <v>170391</v>
       </c>
       <c r="C208" t="s">
         <v>1540</v>
@@ -22682,7 +22682,7 @@
         <v>24619</v>
       </c>
       <c r="B209" t="n">
-        <v>139286</v>
+        <v>170392</v>
       </c>
       <c r="C209" t="s">
         <v>1549</v>
@@ -22818,7 +22818,7 @@
         <v>24619</v>
       </c>
       <c r="B211" t="n">
-        <v>139287</v>
+        <v>170393</v>
       </c>
       <c r="C211" t="s">
         <v>1567</v>
@@ -22954,7 +22954,7 @@
         <v>24619</v>
       </c>
       <c r="B213" t="n">
-        <v>139288</v>
+        <v>170394</v>
       </c>
       <c r="C213" t="s">
         <v>1580</v>
@@ -23175,7 +23175,7 @@
         <v>24619</v>
       </c>
       <c r="B216" t="n">
-        <v>139289</v>
+        <v>170395</v>
       </c>
       <c r="C216" t="s">
         <v>1602</v>
@@ -23240,7 +23240,7 @@
         <v>24619</v>
       </c>
       <c r="B217" t="n">
-        <v>139290</v>
+        <v>170396</v>
       </c>
       <c r="C217" t="s">
         <v>1609</v>
@@ -23530,7 +23530,7 @@
         <v>24619</v>
       </c>
       <c r="B221" t="n">
-        <v>139291</v>
+        <v>170397</v>
       </c>
       <c r="C221" t="s">
         <v>1641</v>
@@ -23605,7 +23605,7 @@
         <v>24619</v>
       </c>
       <c r="B222" t="n">
-        <v>139292</v>
+        <v>170398</v>
       </c>
       <c r="C222" t="s">
         <v>1647</v>
@@ -23749,7 +23749,7 @@
         <v>24619</v>
       </c>
       <c r="B224" t="n">
-        <v>139293</v>
+        <v>170399</v>
       </c>
       <c r="C224" t="s">
         <v>1660</v>
@@ -23899,7 +23899,7 @@
         <v>24619</v>
       </c>
       <c r="B226" t="n">
-        <v>139294</v>
+        <v>170400</v>
       </c>
       <c r="C226" t="s">
         <v>1674</v>
@@ -23964,7 +23964,7 @@
         <v>24619</v>
       </c>
       <c r="B227" t="n">
-        <v>139295</v>
+        <v>170401</v>
       </c>
       <c r="C227" t="s">
         <v>1681</v>
@@ -24159,7 +24159,7 @@
         <v>24619</v>
       </c>
       <c r="B230" t="n">
-        <v>139296</v>
+        <v>170402</v>
       </c>
       <c r="C230" t="s">
         <v>1703</v>
@@ -24234,7 +24234,7 @@
         <v>24619</v>
       </c>
       <c r="B231" t="n">
-        <v>139297</v>
+        <v>170403</v>
       </c>
       <c r="C231" t="s">
         <v>1710</v>
@@ -24437,7 +24437,7 @@
         <v>24619</v>
       </c>
       <c r="B234" t="n">
-        <v>139298</v>
+        <v>170404</v>
       </c>
       <c r="C234" t="s">
         <v>1730</v>
@@ -24502,7 +24502,7 @@
         <v>24619</v>
       </c>
       <c r="B235" t="n">
-        <v>139299</v>
+        <v>170405</v>
       </c>
       <c r="C235" t="s">
         <v>1737</v>
@@ -24573,7 +24573,7 @@
         <v>24619</v>
       </c>
       <c r="B236" t="n">
-        <v>139300</v>
+        <v>170406</v>
       </c>
       <c r="C236" t="s">
         <v>1742</v>
@@ -24644,7 +24644,7 @@
         <v>24619</v>
       </c>
       <c r="B237" t="n">
-        <v>139301</v>
+        <v>170407</v>
       </c>
       <c r="C237" t="s">
         <v>1749</v>
@@ -24922,7 +24922,7 @@
         <v>24619</v>
       </c>
       <c r="B241" t="n">
-        <v>139302</v>
+        <v>170408</v>
       </c>
       <c r="C241" t="s">
         <v>1774</v>
@@ -24993,7 +24993,7 @@
         <v>24619</v>
       </c>
       <c r="B242" t="n">
-        <v>139303</v>
+        <v>170409</v>
       </c>
       <c r="C242" t="s">
         <v>1780</v>
@@ -25054,7 +25054,7 @@
         <v>24619</v>
       </c>
       <c r="B243" t="n">
-        <v>139304</v>
+        <v>170410</v>
       </c>
       <c r="C243" t="s">
         <v>1787</v>
@@ -25123,7 +25123,7 @@
         <v>24619</v>
       </c>
       <c r="B244" t="n">
-        <v>139305</v>
+        <v>170411</v>
       </c>
       <c r="C244" t="s">
         <v>1794</v>
@@ -25192,7 +25192,7 @@
         <v>24619</v>
       </c>
       <c r="B245" t="n">
-        <v>139306</v>
+        <v>170412</v>
       </c>
       <c r="C245" t="s">
         <v>1800</v>
@@ -25257,7 +25257,7 @@
         <v>24619</v>
       </c>
       <c r="B246" t="n">
-        <v>139307</v>
+        <v>170413</v>
       </c>
       <c r="C246" t="s">
         <v>1806</v>
@@ -25322,7 +25322,7 @@
         <v>24619</v>
       </c>
       <c r="B247" t="n">
-        <v>139308</v>
+        <v>170414</v>
       </c>
       <c r="C247" t="s">
         <v>1811</v>
@@ -25466,7 +25466,7 @@
         <v>24619</v>
       </c>
       <c r="B249" t="n">
-        <v>139309</v>
+        <v>170415</v>
       </c>
       <c r="C249" t="s">
         <v>1823</v>
@@ -25541,7 +25541,7 @@
         <v>24619</v>
       </c>
       <c r="B250" t="n">
-        <v>139310</v>
+        <v>170416</v>
       </c>
       <c r="C250" t="s">
         <v>1829</v>
@@ -25606,7 +25606,7 @@
         <v>24619</v>
       </c>
       <c r="B251" t="n">
-        <v>139311</v>
+        <v>170417</v>
       </c>
       <c r="C251" t="s">
         <v>1835</v>
@@ -25744,7 +25744,7 @@
         <v>24619</v>
       </c>
       <c r="B253" t="n">
-        <v>139312</v>
+        <v>170418</v>
       </c>
       <c r="C253" t="s">
         <v>1847</v>
@@ -25811,7 +25811,7 @@
         <v>24619</v>
       </c>
       <c r="B254" t="n">
-        <v>139313</v>
+        <v>170419</v>
       </c>
       <c r="C254" t="s">
         <v>1853</v>
@@ -25882,7 +25882,7 @@
         <v>24619</v>
       </c>
       <c r="B255" t="n">
-        <v>139314</v>
+        <v>170420</v>
       </c>
       <c r="C255" t="s">
         <v>1859</v>
@@ -26022,7 +26022,7 @@
         <v>24619</v>
       </c>
       <c r="B257" t="n">
-        <v>139315</v>
+        <v>170421</v>
       </c>
       <c r="C257" t="s">
         <v>1873</v>
@@ -26093,7 +26093,7 @@
         <v>24619</v>
       </c>
       <c r="B258" t="n">
-        <v>139316</v>
+        <v>170422</v>
       </c>
       <c r="C258" t="s">
         <v>1879</v>
@@ -26168,7 +26168,7 @@
         <v>24619</v>
       </c>
       <c r="B259" t="n">
-        <v>139317</v>
+        <v>170423</v>
       </c>
       <c r="C259" t="s">
         <v>1885</v>
@@ -26233,7 +26233,7 @@
         <v>24619</v>
       </c>
       <c r="B260" t="n">
-        <v>139318</v>
+        <v>170424</v>
       </c>
       <c r="C260" t="s">
         <v>1892</v>
@@ -26302,7 +26302,7 @@
         <v>24619</v>
       </c>
       <c r="B261" t="n">
-        <v>139319</v>
+        <v>170425</v>
       </c>
       <c r="C261" t="s">
         <v>1901</v>
@@ -26371,7 +26371,7 @@
         <v>24619</v>
       </c>
       <c r="B262" t="n">
-        <v>139320</v>
+        <v>170426</v>
       </c>
       <c r="C262" t="s">
         <v>1907</v>
@@ -26442,7 +26442,7 @@
         <v>24619</v>
       </c>
       <c r="B263" t="n">
-        <v>139321</v>
+        <v>170427</v>
       </c>
       <c r="C263" t="s">
         <v>1914</v>
@@ -26513,7 +26513,7 @@
         <v>24619</v>
       </c>
       <c r="B264" t="n">
-        <v>139322</v>
+        <v>170428</v>
       </c>
       <c r="C264" t="s">
         <v>1923</v>
@@ -26584,7 +26584,7 @@
         <v>24619</v>
       </c>
       <c r="B265" t="n">
-        <v>139323</v>
+        <v>170429</v>
       </c>
       <c r="C265" t="s">
         <v>1930</v>
@@ -26659,7 +26659,7 @@
         <v>24619</v>
       </c>
       <c r="B266" t="n">
-        <v>139324</v>
+        <v>170430</v>
       </c>
       <c r="C266" t="s">
         <v>1936</v>
@@ -26730,7 +26730,7 @@
         <v>24619</v>
       </c>
       <c r="B267" t="n">
-        <v>139325</v>
+        <v>170431</v>
       </c>
       <c r="C267" t="s">
         <v>1945</v>
@@ -26864,7 +26864,7 @@
         <v>24619</v>
       </c>
       <c r="B269" t="n">
-        <v>139326</v>
+        <v>170432</v>
       </c>
       <c r="C269" t="s">
         <v>1961</v>
@@ -26939,7 +26939,7 @@
         <v>24619</v>
       </c>
       <c r="B270" t="n">
-        <v>139327</v>
+        <v>170433</v>
       </c>
       <c r="C270" t="s">
         <v>1968</v>
@@ -27014,7 +27014,7 @@
         <v>24619</v>
       </c>
       <c r="B271" t="n">
-        <v>139328</v>
+        <v>170434</v>
       </c>
       <c r="C271" t="s">
         <v>1977</v>
@@ -27083,7 +27083,7 @@
         <v>24619</v>
       </c>
       <c r="B272" t="n">
-        <v>139329</v>
+        <v>170435</v>
       </c>
       <c r="C272" t="s">
         <v>1983</v>
@@ -27154,7 +27154,7 @@
         <v>24619</v>
       </c>
       <c r="B273" t="n">
-        <v>139330</v>
+        <v>170436</v>
       </c>
       <c r="C273" t="s">
         <v>1993</v>
@@ -27219,7 +27219,7 @@
         <v>24619</v>
       </c>
       <c r="B274" t="n">
-        <v>139331</v>
+        <v>170437</v>
       </c>
       <c r="C274" t="s">
         <v>1999</v>
@@ -27363,7 +27363,7 @@
         <v>24619</v>
       </c>
       <c r="B276" t="n">
-        <v>139332</v>
+        <v>170438</v>
       </c>
       <c r="C276" t="s">
         <v>2012</v>
@@ -27438,7 +27438,7 @@
         <v>24619</v>
       </c>
       <c r="B277" t="n">
-        <v>139333</v>
+        <v>170439</v>
       </c>
       <c r="C277" t="s">
         <v>2018</v>
@@ -27807,7 +27807,7 @@
         <v>24619</v>
       </c>
       <c r="B282" t="n">
-        <v>139334</v>
+        <v>170440</v>
       </c>
       <c r="C282" t="s">
         <v>2054</v>
@@ -27947,7 +27947,7 @@
         <v>24619</v>
       </c>
       <c r="B284" t="n">
-        <v>139335</v>
+        <v>170441</v>
       </c>
       <c r="C284" t="s">
         <v>2067</v>
@@ -28018,7 +28018,7 @@
         <v>24619</v>
       </c>
       <c r="B285" t="n">
-        <v>139274</v>
+        <v>139226</v>
       </c>
       <c r="C285" t="s">
         <v>1438</v>
@@ -28093,7 +28093,7 @@
         <v>24619</v>
       </c>
       <c r="B286" t="n">
-        <v>139336</v>
+        <v>170442</v>
       </c>
       <c r="C286" t="s">
         <v>2084</v>
@@ -28308,7 +28308,7 @@
         <v>24619</v>
       </c>
       <c r="B289" t="n">
-        <v>139337</v>
+        <v>170443</v>
       </c>
       <c r="C289" t="s">
         <v>2103</v>
@@ -28383,7 +28383,7 @@
         <v>24619</v>
       </c>
       <c r="B290" t="n">
-        <v>139338</v>
+        <v>170444</v>
       </c>
       <c r="C290" t="s">
         <v>2110</v>
@@ -28452,7 +28452,7 @@
         <v>24619</v>
       </c>
       <c r="B291" t="n">
-        <v>139339</v>
+        <v>170445</v>
       </c>
       <c r="C291" t="s">
         <v>2119</v>
@@ -28517,7 +28517,7 @@
         <v>24619</v>
       </c>
       <c r="B292" t="n">
-        <v>139340</v>
+        <v>170446</v>
       </c>
       <c r="C292" t="s">
         <v>2126</v>
@@ -28578,7 +28578,7 @@
         <v>24619</v>
       </c>
       <c r="B293" t="n">
-        <v>139341</v>
+        <v>170447</v>
       </c>
       <c r="C293" t="s">
         <v>2133</v>
@@ -28722,7 +28722,7 @@
         <v>24619</v>
       </c>
       <c r="B295" t="n">
-        <v>139342</v>
+        <v>170448</v>
       </c>
       <c r="C295" t="s">
         <v>2151</v>
@@ -28872,7 +28872,7 @@
         <v>24619</v>
       </c>
       <c r="B297" t="n">
-        <v>139343</v>
+        <v>170449</v>
       </c>
       <c r="C297" t="s">
         <v>2166</v>
@@ -28947,7 +28947,7 @@
         <v>24619</v>
       </c>
       <c r="B298" t="n">
-        <v>139344</v>
+        <v>170450</v>
       </c>
       <c r="C298" t="s">
         <v>2174</v>
@@ -29168,7 +29168,7 @@
         <v>24619</v>
       </c>
       <c r="B301" t="n">
-        <v>139345</v>
+        <v>170451</v>
       </c>
       <c r="C301" t="s">
         <v>2194</v>
@@ -29312,7 +29312,7 @@
         <v>24619</v>
       </c>
       <c r="B303" t="n">
-        <v>139346</v>
+        <v>170452</v>
       </c>
       <c r="C303" t="s">
         <v>2210</v>
@@ -29446,7 +29446,7 @@
         <v>24619</v>
       </c>
       <c r="B305" t="n">
-        <v>139347</v>
+        <v>170453</v>
       </c>
       <c r="C305" t="s">
         <v>2223</v>
@@ -29517,7 +29517,7 @@
         <v>24619</v>
       </c>
       <c r="B306" t="n">
-        <v>139348</v>
+        <v>170454</v>
       </c>
       <c r="C306" t="s">
         <v>2230</v>
@@ -29661,7 +29661,7 @@
         <v>24619</v>
       </c>
       <c r="B308" t="n">
-        <v>139349</v>
+        <v>170455</v>
       </c>
       <c r="C308" t="s">
         <v>2242</v>
@@ -29732,7 +29732,7 @@
         <v>24619</v>
       </c>
       <c r="B309" t="n">
-        <v>139350</v>
+        <v>170456</v>
       </c>
       <c r="C309" t="s">
         <v>2248</v>
@@ -29878,7 +29878,7 @@
         <v>24619</v>
       </c>
       <c r="B311" t="n">
-        <v>139351</v>
+        <v>170457</v>
       </c>
       <c r="C311" t="s">
         <v>2262</v>
@@ -29953,7 +29953,7 @@
         <v>24619</v>
       </c>
       <c r="B312" t="n">
-        <v>139352</v>
+        <v>170458</v>
       </c>
       <c r="C312" t="s">
         <v>2269</v>
@@ -30018,7 +30018,7 @@
         <v>24619</v>
       </c>
       <c r="B313" t="n">
-        <v>139353</v>
+        <v>170459</v>
       </c>
       <c r="C313" t="s">
         <v>2277</v>
@@ -30083,7 +30083,7 @@
         <v>24619</v>
       </c>
       <c r="B314" t="n">
-        <v>139354</v>
+        <v>170460</v>
       </c>
       <c r="C314" t="s">
         <v>2283</v>
@@ -30158,7 +30158,7 @@
         <v>24619</v>
       </c>
       <c r="B315" t="n">
-        <v>139355</v>
+        <v>170461</v>
       </c>
       <c r="C315" t="s">
         <v>2292</v>
@@ -30304,7 +30304,7 @@
         <v>24619</v>
       </c>
       <c r="B317" t="n">
-        <v>139356</v>
+        <v>170462</v>
       </c>
       <c r="C317" t="s">
         <v>2307</v>
@@ -30436,7 +30436,7 @@
         <v>24619</v>
       </c>
       <c r="B319" t="n">
-        <v>139357</v>
+        <v>170463</v>
       </c>
       <c r="C319" t="s">
         <v>2322</v>
@@ -30501,7 +30501,7 @@
         <v>24619</v>
       </c>
       <c r="B320" t="n">
-        <v>139358</v>
+        <v>170464</v>
       </c>
       <c r="C320" t="s">
         <v>2331</v>
@@ -30570,7 +30570,7 @@
         <v>24619</v>
       </c>
       <c r="B321" t="n">
-        <v>139359</v>
+        <v>170465</v>
       </c>
       <c r="C321" t="s">
         <v>2340</v>
@@ -30639,7 +30639,7 @@
         <v>24619</v>
       </c>
       <c r="B322" t="n">
-        <v>139360</v>
+        <v>170466</v>
       </c>
       <c r="C322" t="s">
         <v>2347</v>
@@ -30704,7 +30704,7 @@
         <v>24619</v>
       </c>
       <c r="B323" t="n">
-        <v>139361</v>
+        <v>170467</v>
       </c>
       <c r="C323" t="s">
         <v>2357</v>
@@ -30998,7 +30998,7 @@
         <v>24619</v>
       </c>
       <c r="B327" t="n">
-        <v>139362</v>
+        <v>170468</v>
       </c>
       <c r="C327" t="s">
         <v>2387</v>
@@ -31063,7 +31063,7 @@
         <v>24619</v>
       </c>
       <c r="B328" t="n">
-        <v>139363</v>
+        <v>170469</v>
       </c>
       <c r="C328" t="s">
         <v>2394</v>
@@ -31207,7 +31207,7 @@
         <v>24619</v>
       </c>
       <c r="B330" t="n">
-        <v>139364</v>
+        <v>170470</v>
       </c>
       <c r="C330" t="s">
         <v>2407</v>
@@ -31278,7 +31278,7 @@
         <v>24619</v>
       </c>
       <c r="B331" t="n">
-        <v>139365</v>
+        <v>170471</v>
       </c>
       <c r="C331" t="s">
         <v>2414</v>
@@ -31349,7 +31349,7 @@
         <v>24619</v>
       </c>
       <c r="B332" t="n">
-        <v>139366</v>
+        <v>170472</v>
       </c>
       <c r="C332" t="s">
         <v>2418</v>
@@ -31499,7 +31499,7 @@
         <v>24619</v>
       </c>
       <c r="B334" t="n">
-        <v>139367</v>
+        <v>170473</v>
       </c>
       <c r="C334" t="s">
         <v>2431</v>
@@ -31570,7 +31570,7 @@
         <v>24619</v>
       </c>
       <c r="B335" t="n">
-        <v>139368</v>
+        <v>170474</v>
       </c>
       <c r="C335" t="s">
         <v>2437</v>
@@ -31706,7 +31706,7 @@
         <v>24619</v>
       </c>
       <c r="B337" t="n">
-        <v>139369</v>
+        <v>170475</v>
       </c>
       <c r="C337" t="s">
         <v>2451</v>
@@ -31771,7 +31771,7 @@
         <v>24619</v>
       </c>
       <c r="B338" t="n">
-        <v>139370</v>
+        <v>170476</v>
       </c>
       <c r="C338" t="s">
         <v>2458</v>
